--- a/bot/data/files/to_send/olympiads_template.xlsx
+++ b/bot/data/files/to_send/olympiads_template.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,11 +476,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>МОШ по истории</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
@@ -517,7 +513,7 @@
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Физика</t>
+          <t>Биология</t>
         </is>
       </c>
     </row>
@@ -531,7 +527,7 @@
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Химия</t>
+          <t>География</t>
         </is>
       </c>
     </row>
@@ -545,7 +541,7 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Биология</t>
+          <t>Информатика</t>
         </is>
       </c>
     </row>
@@ -559,7 +555,7 @@
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Экология</t>
+          <t>Искусство МХК</t>
         </is>
       </c>
     </row>
@@ -573,7 +569,7 @@
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Русский язык</t>
+          <t>Испанский язык</t>
         </is>
       </c>
     </row>
@@ -587,7 +583,7 @@
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Испанский язык</t>
+          <t>История</t>
         </is>
       </c>
     </row>
@@ -601,7 +597,7 @@
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Французский язык</t>
+          <t>Итальянский язык</t>
         </is>
       </c>
     </row>
@@ -615,7 +611,7 @@
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Лингвистика</t>
+          <t>Китайский язык</t>
         </is>
       </c>
     </row>
@@ -629,7 +625,7 @@
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Немецкий язык</t>
+          <t>Литература</t>
         </is>
       </c>
     </row>
@@ -643,7 +639,7 @@
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Обществознание</t>
+          <t>Лингвистика</t>
         </is>
       </c>
     </row>
@@ -657,7 +653,7 @@
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Право</t>
+          <t>Математика</t>
         </is>
       </c>
     </row>
@@ -671,7 +667,7 @@
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Экономика</t>
+          <t>Немецкий язык</t>
         </is>
       </c>
     </row>
@@ -685,7 +681,7 @@
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Математика</t>
+          <t>ОБЖ</t>
         </is>
       </c>
     </row>
@@ -697,7 +693,175 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Обществознание</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Право</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr"/>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr"/>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Русский язык</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr"/>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Технология ТТ</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Технология РТ</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr"/>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Технология КД</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr"/>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Физика</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr"/>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Физическая культура</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Французский язык</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr"/>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Химия</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr"/>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Экология</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr"/>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Экономика</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
